--- a/src/swl_lstm/data_GAC.xlsx
+++ b/src/swl_lstm/data_GAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\coagulant-forecast\src\swl_lstm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7866B7D3-FC95-4961-8E19-A7E8939CFBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49F4EC0-C3F3-47CC-9863-818AB882E969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="活性炭" sheetId="3" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>PH</t>
   </si>
@@ -73,42 +64,14 @@
     <t>NTU</t>
   </si>
   <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>10min</t>
-  </si>
-  <si>
-    <t>0min</t>
-  </si>
-  <si>
-    <t>5min</t>
-  </si>
-  <si>
-    <t>15min</t>
-  </si>
-  <si>
-    <t>20min</t>
-  </si>
-  <si>
-    <t>N/F</t>
-  </si>
-  <si>
-    <t>25min</t>
-  </si>
-  <si>
     <t>0.786.68</t>
   </si>
   <si>
-    <t>电导率</t>
+    <t>Conductivity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20min</t>
+    <t>GA_Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,15 +450,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702630BD-D4EE-4F9A-A7C5-3CE842CDCA8F}">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="L104" sqref="L104"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="T71" sqref="T71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -510,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -535,8 +498,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
+      <c r="A2" s="2">
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>7.6</v>
@@ -576,8 +539,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
+      <c r="A3" s="3">
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>7.33</v>
@@ -617,8 +580,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
+      <c r="A4" s="3">
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>8.23</v>
@@ -658,7 +621,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="3">
         <v>15</v>
       </c>
       <c r="B5" s="3">
@@ -699,8 +662,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
+      <c r="A6" s="3">
+        <v>20</v>
       </c>
       <c r="B6" s="3">
         <v>8.15</v>
@@ -740,8 +703,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
+      <c r="A7" s="3">
+        <v>25</v>
       </c>
       <c r="B7" s="3">
         <v>8.18</v>
@@ -781,8 +744,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
+      <c r="A8" s="2">
+        <v>0</v>
       </c>
       <c r="B8" s="2">
         <v>7.97</v>
@@ -822,8 +785,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
+      <c r="A9" s="3">
+        <v>5</v>
       </c>
       <c r="B9" s="5">
         <v>8.1</v>
@@ -863,8 +826,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
+      <c r="A10" s="3">
+        <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>7.83</v>
@@ -904,7 +867,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="3">
         <v>15</v>
       </c>
       <c r="B11" s="3">
@@ -945,8 +908,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
+      <c r="A12" s="3">
+        <v>20</v>
       </c>
       <c r="B12" s="3">
         <v>8.17</v>
@@ -986,8 +949,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
+      <c r="A13" s="3">
+        <v>25</v>
       </c>
       <c r="B13" s="5">
         <v>8.1999999999999993</v>
@@ -1027,8 +990,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
+      <c r="A14" s="2">
+        <v>0</v>
       </c>
       <c r="B14" s="2">
         <v>7.86</v>
@@ -1068,8 +1031,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
+      <c r="A15" s="3">
+        <v>5</v>
       </c>
       <c r="B15" s="3">
         <v>8.16</v>
@@ -1109,8 +1072,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
+      <c r="A16" s="3">
+        <v>10</v>
       </c>
       <c r="B16" s="3">
         <v>8.1199999999999992</v>
@@ -1150,7 +1113,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="5">
@@ -1191,8 +1154,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
+      <c r="A18" s="3">
+        <v>20</v>
       </c>
       <c r="B18" s="5">
         <v>8.1</v>
@@ -1232,8 +1195,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
+      <c r="A19" s="3">
+        <v>25</v>
       </c>
       <c r="B19" s="3">
         <v>8.19</v>
@@ -1273,8 +1236,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
+      <c r="A20" s="2">
+        <v>0</v>
       </c>
       <c r="B20" s="2">
         <v>7.93</v>
@@ -1314,8 +1277,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>14</v>
+      <c r="A21" s="3">
+        <v>5</v>
       </c>
       <c r="B21" s="3">
         <v>8.17</v>
@@ -1355,8 +1318,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
+      <c r="A22" s="3">
+        <v>10</v>
       </c>
       <c r="B22" s="3">
         <v>8.18</v>
@@ -1396,7 +1359,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="3">
         <v>15</v>
       </c>
       <c r="B23" s="3">
@@ -1437,8 +1400,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>16</v>
+      <c r="A24" s="3">
+        <v>20</v>
       </c>
       <c r="B24" s="3">
         <v>8.14</v>
@@ -1478,8 +1441,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>18</v>
+      <c r="A25" s="3">
+        <v>25</v>
       </c>
       <c r="B25" s="3">
         <v>8.2200000000000006</v>
@@ -1519,8 +1482,8 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>13</v>
+      <c r="A26" s="2">
+        <v>0</v>
       </c>
       <c r="B26" s="2">
         <v>8</v>
@@ -1560,8 +1523,8 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>14</v>
+      <c r="A27" s="3">
+        <v>5</v>
       </c>
       <c r="B27" s="3">
         <v>8.11</v>
@@ -1601,8 +1564,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>12</v>
+      <c r="A28" s="3">
+        <v>10</v>
       </c>
       <c r="B28" s="5">
         <v>8.1999999999999993</v>
@@ -1642,7 +1605,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="3">
         <v>15</v>
       </c>
       <c r="B29" s="3">
@@ -1683,8 +1646,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>16</v>
+      <c r="A30" s="3">
+        <v>20</v>
       </c>
       <c r="B30" s="5">
         <v>8.1999999999999993</v>
@@ -1724,8 +1687,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>18</v>
+      <c r="A31" s="3">
+        <v>25</v>
       </c>
       <c r="B31" s="3">
         <v>8.17</v>
@@ -1765,8 +1728,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>13</v>
+      <c r="A32" s="2">
+        <v>0</v>
       </c>
       <c r="B32" s="2">
         <v>8.01</v>
@@ -1806,8 +1769,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>14</v>
+      <c r="A33" s="3">
+        <v>5</v>
       </c>
       <c r="B33" s="3">
         <v>8.2100000000000009</v>
@@ -1847,8 +1810,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>12</v>
+      <c r="A34" s="3">
+        <v>10</v>
       </c>
       <c r="B34" s="3">
         <v>8.2100000000000009</v>
@@ -1888,7 +1851,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="3">
         <v>15</v>
       </c>
       <c r="B35" s="3">
@@ -1929,8 +1892,8 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>16</v>
+      <c r="A36" s="3">
+        <v>20</v>
       </c>
       <c r="B36" s="3">
         <v>8.23</v>
@@ -1970,8 +1933,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>18</v>
+      <c r="A37" s="3">
+        <v>25</v>
       </c>
       <c r="B37" s="3">
         <v>8.19</v>
@@ -2011,8 +1974,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>13</v>
+      <c r="A38" s="2">
+        <v>0</v>
       </c>
       <c r="B38" s="2">
         <v>7.97</v>
@@ -2052,8 +2015,8 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>14</v>
+      <c r="A39" s="3">
+        <v>5</v>
       </c>
       <c r="B39" s="3">
         <v>8.23</v>
@@ -2093,8 +2056,8 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>12</v>
+      <c r="A40" s="3">
+        <v>10</v>
       </c>
       <c r="B40" s="3">
         <v>8.19</v>
@@ -2134,7 +2097,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="3">
         <v>15</v>
       </c>
       <c r="B41" s="3">
@@ -2175,8 +2138,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>16</v>
+      <c r="A42" s="3">
+        <v>20</v>
       </c>
       <c r="B42" s="3">
         <v>8.16</v>
@@ -2216,8 +2179,8 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>18</v>
+      <c r="A43" s="3">
+        <v>25</v>
       </c>
       <c r="B43" s="3">
         <v>8.17</v>
@@ -2257,8 +2220,8 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>13</v>
+      <c r="A44" s="2">
+        <v>0</v>
       </c>
       <c r="B44" s="2">
         <v>7.76</v>
@@ -2298,8 +2261,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>14</v>
+      <c r="A45" s="3">
+        <v>5</v>
       </c>
       <c r="B45" s="3">
         <v>8.17</v>
@@ -2339,8 +2302,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>12</v>
+      <c r="A46" s="3">
+        <v>10</v>
       </c>
       <c r="B46" s="3">
         <v>8.16</v>
@@ -2380,7 +2343,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="3">
         <v>15</v>
       </c>
       <c r="B47" s="3">
@@ -2421,8 +2384,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>16</v>
+      <c r="A48" s="3">
+        <v>20</v>
       </c>
       <c r="B48" s="3">
         <v>8.19</v>
@@ -2462,8 +2425,8 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>18</v>
+      <c r="A49" s="3">
+        <v>25</v>
       </c>
       <c r="B49" s="5">
         <v>7.35</v>
@@ -2503,8 +2466,8 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>13</v>
+      <c r="A50" s="2">
+        <v>0</v>
       </c>
       <c r="B50" s="2">
         <v>7.31</v>
@@ -2544,14 +2507,14 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>14</v>
+      <c r="A51" s="3">
+        <v>5</v>
       </c>
       <c r="B51" s="3">
         <v>8.26</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D51" s="3">
         <v>7.0000000000000001E-3</v>
@@ -2585,8 +2548,8 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>12</v>
+      <c r="A52" s="3">
+        <v>10</v>
       </c>
       <c r="B52" s="3">
         <v>8.2799999999999994</v>
@@ -2626,7 +2589,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="3">
         <v>15</v>
       </c>
       <c r="B53" s="3">
@@ -2667,8 +2630,8 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>16</v>
+      <c r="A54" s="3">
+        <v>20</v>
       </c>
       <c r="B54" s="3">
         <v>8.3699999999999992</v>
@@ -2708,8 +2671,8 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>21</v>
+      <c r="A55" s="3">
+        <v>25</v>
       </c>
       <c r="B55" s="3">
         <v>8.3699999999999992</v>
@@ -2749,8 +2712,8 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>13</v>
+      <c r="A56" s="2">
+        <v>0</v>
       </c>
       <c r="B56" s="2">
         <v>7.3</v>
@@ -2790,8 +2753,8 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>14</v>
+      <c r="A57" s="3">
+        <v>5</v>
       </c>
       <c r="B57" s="3">
         <v>8.42</v>
@@ -2831,8 +2794,8 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>12</v>
+      <c r="A58" s="3">
+        <v>10</v>
       </c>
       <c r="B58" s="3">
         <v>8.49</v>
@@ -2872,7 +2835,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="3">
         <v>15</v>
       </c>
       <c r="B59" s="3">
@@ -2913,8 +2876,8 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>16</v>
+      <c r="A60" s="3">
+        <v>20</v>
       </c>
       <c r="B60" s="3">
         <v>8.4600000000000009</v>
@@ -2954,8 +2917,8 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>21</v>
+      <c r="A61" s="3">
+        <v>25</v>
       </c>
       <c r="B61" s="3">
         <v>8.4600000000000009</v>
@@ -2995,8 +2958,8 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>13</v>
+      <c r="A62" s="2">
+        <v>0</v>
       </c>
       <c r="B62" s="2">
         <v>7.31</v>
@@ -3036,8 +2999,8 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>14</v>
+      <c r="A63" s="3">
+        <v>5</v>
       </c>
       <c r="B63" s="3">
         <v>8.52</v>
@@ -3077,8 +3040,8 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>12</v>
+      <c r="A64" s="3">
+        <v>10</v>
       </c>
       <c r="B64" s="3">
         <v>8.5500000000000007</v>
@@ -3118,7 +3081,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="3">
         <v>15</v>
       </c>
       <c r="B65" s="3">
@@ -3159,8 +3122,8 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>16</v>
+      <c r="A66" s="3">
+        <v>20</v>
       </c>
       <c r="B66" s="3">
         <v>8.25</v>
@@ -3200,8 +3163,8 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>21</v>
+      <c r="A67" s="3">
+        <v>25</v>
       </c>
       <c r="B67" s="3">
         <v>8.25</v>
@@ -3241,8 +3204,8 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>13</v>
+      <c r="A68" s="2">
+        <v>0</v>
       </c>
       <c r="B68" s="2">
         <v>7.3</v>
@@ -3282,8 +3245,8 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>14</v>
+      <c r="A69" s="3">
+        <v>5</v>
       </c>
       <c r="B69" s="3">
         <v>8.2100000000000009</v>
@@ -3323,8 +3286,8 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>12</v>
+      <c r="A70" s="3">
+        <v>10</v>
       </c>
       <c r="B70" s="3">
         <v>8.25</v>
@@ -3364,7 +3327,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="3">
         <v>15</v>
       </c>
       <c r="B71" s="3">
@@ -3405,8 +3368,8 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>16</v>
+      <c r="A72" s="3">
+        <v>20</v>
       </c>
       <c r="B72" s="3">
         <v>8.15</v>
@@ -3446,8 +3409,8 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>21</v>
+      <c r="A73" s="3">
+        <v>25</v>
       </c>
       <c r="B73" s="3">
         <v>8.15</v>
@@ -3487,8 +3450,8 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>13</v>
+      <c r="A74" s="2">
+        <v>0</v>
       </c>
       <c r="B74" s="2">
         <v>7.29</v>
@@ -3528,8 +3491,8 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>14</v>
+      <c r="A75" s="3">
+        <v>5</v>
       </c>
       <c r="B75" s="3">
         <v>8.24</v>
@@ -3569,8 +3532,8 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>12</v>
+      <c r="A76" s="3">
+        <v>10</v>
       </c>
       <c r="B76" s="3">
         <v>7.91</v>
@@ -3593,8 +3556,8 @@
       <c r="H76" s="3">
         <v>0.27100000000000002</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>17</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3">
         <v>0.71099999999999997</v>
@@ -3610,7 +3573,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="3">
         <v>15</v>
       </c>
       <c r="B77" s="3">
@@ -3631,11 +3594,11 @@
       <c r="G77" s="3">
         <v>1.002</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>17</v>
+      <c r="H77" s="3">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
       </c>
       <c r="J77" s="3">
         <v>0.70899999999999996</v>
@@ -3651,8 +3614,8 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>22</v>
+      <c r="A78" s="3">
+        <v>20</v>
       </c>
       <c r="B78" s="3">
         <v>7.31</v>
@@ -3672,11 +3635,11 @@
       <c r="G78" s="3">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>17</v>
+      <c r="H78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0</v>
       </c>
       <c r="J78" s="3">
         <v>0.71799999999999997</v>
@@ -3692,8 +3655,8 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>21</v>
+      <c r="A79" s="3">
+        <v>25</v>
       </c>
       <c r="B79" s="3">
         <v>7.31</v>
@@ -3713,11 +3676,11 @@
       <c r="G79" s="3">
         <v>0.91900000000000004</v>
       </c>
-      <c r="H79" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>17</v>
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3">
+        <v>0</v>
       </c>
       <c r="J79" s="3">
         <v>0.71799999999999997</v>
@@ -3733,8 +3696,8 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>13</v>
+      <c r="A80" s="2">
+        <v>0</v>
       </c>
       <c r="B80" s="2">
         <v>7.3</v>
@@ -3774,8 +3737,8 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>14</v>
+      <c r="A81" s="3">
+        <v>5</v>
       </c>
       <c r="B81" s="3">
         <v>7.37</v>
@@ -3815,8 +3778,8 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>12</v>
+      <c r="A82" s="3">
+        <v>10</v>
       </c>
       <c r="B82" s="3">
         <v>7.28</v>
@@ -3856,7 +3819,7 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="3">
         <v>15</v>
       </c>
       <c r="B83" s="3">
@@ -3897,8 +3860,8 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>16</v>
+      <c r="A84" s="3">
+        <v>20</v>
       </c>
       <c r="B84" s="3">
         <v>7.28</v>
@@ -3918,8 +3881,8 @@
       <c r="G84" s="3">
         <v>1.3149999999999999</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>17</v>
+      <c r="H84" s="3">
+        <v>0</v>
       </c>
       <c r="I84" s="3">
         <v>0</v>
@@ -3938,8 +3901,8 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>21</v>
+      <c r="A85" s="3">
+        <v>25</v>
       </c>
       <c r="B85" s="3">
         <v>7.28</v>
@@ -3959,8 +3922,8 @@
       <c r="G85" s="3">
         <v>1.3149999999999999</v>
       </c>
-      <c r="H85" s="3" t="s">
-        <v>17</v>
+      <c r="H85" s="3">
+        <v>0</v>
       </c>
       <c r="I85" s="3">
         <v>0</v>
@@ -3979,8 +3942,8 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>13</v>
+      <c r="A86" s="2">
+        <v>0</v>
       </c>
       <c r="B86" s="2">
         <v>7.29</v>
@@ -4020,8 +3983,8 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>14</v>
+      <c r="A87" s="3">
+        <v>5</v>
       </c>
       <c r="B87" s="3">
         <v>7.28</v>
@@ -4061,8 +4024,8 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>12</v>
+      <c r="A88" s="3">
+        <v>10</v>
       </c>
       <c r="B88" s="5">
         <v>7.3</v>
@@ -4102,7 +4065,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="3">
         <v>15</v>
       </c>
       <c r="B89" s="5">
@@ -4143,8 +4106,8 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>16</v>
+      <c r="A90" s="3">
+        <v>20</v>
       </c>
       <c r="B90" s="5">
         <v>7.3</v>
@@ -4184,8 +4147,8 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>21</v>
+      <c r="A91" s="3">
+        <v>25</v>
       </c>
       <c r="B91" s="5">
         <v>7.3</v>
@@ -4225,8 +4188,8 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>13</v>
+      <c r="A92" s="2">
+        <v>0</v>
       </c>
       <c r="B92" s="2">
         <v>7.29</v>
@@ -4266,8 +4229,8 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>14</v>
+      <c r="A93" s="3">
+        <v>5</v>
       </c>
       <c r="B93" s="3">
         <v>7.29</v>
@@ -4307,8 +4270,8 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>12</v>
+      <c r="A94" s="3">
+        <v>10</v>
       </c>
       <c r="B94" s="3">
         <v>7.27</v>
@@ -4348,7 +4311,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="3">
         <v>15</v>
       </c>
       <c r="B95" s="3">
@@ -4389,8 +4352,8 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>16</v>
+      <c r="A96" s="3">
+        <v>20</v>
       </c>
       <c r="B96" s="3">
         <v>7.27</v>
@@ -4430,8 +4393,8 @@
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>21</v>
+      <c r="A97" s="3">
+        <v>25</v>
       </c>
       <c r="B97" s="3">
         <v>7.27</v>
